--- a/data/trans_camb/P1001-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1001-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>1.533108309708192</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.216979278035692</v>
+        <v>1.21697927803569</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>8.40807616861664</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.1077112779005361</v>
+        <v>0.1996572634016711</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.6479899289199035</v>
+        <v>-0.7528910096716146</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.8854315400744295</v>
+        <v>-1.060122774490744</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.396614662275315</v>
+        <v>5.19661557699908</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.062511920169136</v>
+        <v>2.87035224115281</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.794972371975314</v>
+        <v>1.424664774240496</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.572449861436619</v>
+        <v>3.480760720714707</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.786809960663125</v>
+        <v>2.035745472611915</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.1549879182519</v>
+        <v>1.210332884978684</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.813803244800036</v>
+        <v>4.993751514768283</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.807358118278971</v>
+        <v>3.741517552286486</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.553994132901126</v>
+        <v>3.737002991802237</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.0911499270817</v>
+        <v>11.77800907095592</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>9.456293848231565</v>
+        <v>9.140734800298247</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.995656552581924</v>
+        <v>6.582314602505964</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>7.483485382475825</v>
+        <v>7.407598579883333</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.96958560253444</v>
+        <v>5.942561187742805</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.503092515546816</v>
+        <v>4.761362464418715</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.3562731837572266</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.2828091656713236</v>
+        <v>0.2828091656713232</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>1.266050974485049</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.03544058936058272</v>
+        <v>0.04083293988589067</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1444649056262523</v>
+        <v>-0.1567929958152407</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1713408333113383</v>
+        <v>-0.209530087935338</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.6668405709396117</v>
+        <v>0.6350193744740662</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3683881830500767</v>
+        <v>0.3473063619054467</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1968058999424491</v>
+        <v>0.1617802220068191</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5485002847693391</v>
+        <v>0.5488107654078597</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.272125327451346</v>
+        <v>0.3297629081122218</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1703887405252157</v>
+        <v>0.1726772575915153</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.462782125711915</v>
+        <v>1.51626890369674</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.136002763023179</v>
+        <v>1.106513849826657</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.122193988359798</v>
+        <v>1.101110756964578</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.240882995452437</v>
+        <v>2.163895791737539</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.708751785770865</v>
+        <v>1.685976960009243</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.310704602145931</v>
+        <v>1.279879369745126</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.608961068363879</v>
+        <v>1.602526347457973</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.257798053985954</v>
+        <v>1.296610694378822</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.9711206010688256</v>
+        <v>1.016865802400081</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-1.018108473038836</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.7134835611444998</v>
+        <v>-0.7134835611445005</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>8.168957102873787</v>
@@ -869,7 +869,7 @@
         <v>4.486312217525473</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>3.503027538294697</v>
+        <v>3.503027538294698</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>5.215443318868854</v>
@@ -878,7 +878,7 @@
         <v>1.76665383442524</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>1.421234528920912</v>
+        <v>1.421234528920914</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.07588247193400505</v>
+        <v>-0.07437473085307358</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.222794268743739</v>
+        <v>-3.036929406017677</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.798923988791577</v>
+        <v>-2.785344471992727</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5.377032122734591</v>
+        <v>5.325410287581975</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.534930542939621</v>
+        <v>1.757753162890208</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8466504225194552</v>
+        <v>1.008644648392106</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>3.408211056554987</v>
+        <v>3.33348304414275</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>6.962648433097397e-05</v>
+        <v>-0.119191321572766</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.1944710237923907</v>
+        <v>-0.1612455828587736</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.737036155006158</v>
+        <v>4.493974389439429</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9188454538519513</v>
+        <v>1.14461623509168</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.256954456953222</v>
+        <v>1.167137140155985</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.08260247127808</v>
+        <v>11.26051225316189</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.340819358323418</v>
+        <v>7.41930779792192</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.673012872295832</v>
+        <v>5.967692064251964</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.004117115289085</v>
+        <v>7.067050734497261</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.309925379217037</v>
+        <v>3.45391369392427</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.021556364239484</v>
+        <v>2.927708143243103</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.1700282509700657</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.1191546531728606</v>
+        <v>-0.1191546531728607</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>1.074084625672146</v>
@@ -974,7 +974,7 @@
         <v>0.5898768861344668</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4605909879077267</v>
+        <v>0.460590987907727</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.7670384494270971</v>
@@ -983,7 +983,7 @@
         <v>0.2598228635578134</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.2090218343264789</v>
+        <v>0.2090218343264793</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.02224808446571093</v>
+        <v>-0.01200779824385824</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4555115747679378</v>
+        <v>-0.4344227044106556</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3965840669255728</v>
+        <v>-0.4021281680143061</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.6180406610669607</v>
+        <v>0.5731115796087727</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1628287311721476</v>
+        <v>0.194777990010023</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08537412147957918</v>
+        <v>0.102410981054456</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4488128917152859</v>
+        <v>0.4271968728513568</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.001134452082020413</v>
+        <v>-0.01921240708247762</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.02761552406602449</v>
+        <v>-0.02311881248277074</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.9310931878298063</v>
+        <v>0.9438905225872906</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1780739744523542</v>
+        <v>0.2318115474863668</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2291273436853732</v>
+        <v>0.2309795551884415</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.787413812857085</v>
+        <v>1.771089932324099</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.163956920801906</v>
+        <v>1.1954666458948</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9179807153783218</v>
+        <v>0.9525641412748214</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.156871888305936</v>
+        <v>1.161636963538109</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5499195390019584</v>
+        <v>0.5697336469506945</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.5114703908397563</v>
+        <v>0.5018849214777557</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-0.2866109369935782</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-1.326709000960867</v>
+        <v>-1.32670900096087</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.9855680909684292</v>
@@ -1092,7 +1092,7 @@
         <v>-0.7916995265199802</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-0.2882338582675892</v>
+        <v>-0.2882338582675878</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.839109254149206</v>
+        <v>-4.511486164335597</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.962362765027068</v>
+        <v>-4.128071316320854</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.318219000165569</v>
+        <v>-2.094170239944549</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.729570581924929</v>
+        <v>-3.65894114208735</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.624883740057514</v>
+        <v>-3.629797263210056</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.36362734251645</v>
+        <v>-4.795791988424796</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.367031522709824</v>
+        <v>-3.469196303235357</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.999158637542695</v>
+        <v>-3.233081293308025</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.779420734156609</v>
+        <v>-2.449740101922821</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.705090156043137</v>
+        <v>0.9123881272524375</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.345517820423428</v>
+        <v>1.485545935500977</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.55817987614642</v>
+        <v>3.92708747410521</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.443770041419906</v>
+        <v>3.295720889813281</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.478267475122997</v>
+        <v>3.401076041962182</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.102756765309741</v>
+        <v>2.155030907989413</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.294353498629996</v>
+        <v>1.151865999659457</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.559560236093329</v>
+        <v>1.380609781129733</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.896524337574097</v>
+        <v>2.069197636560395</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.02150004650079199</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.09952273808140488</v>
+        <v>-0.09952273808140509</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.09535293628253132</v>
@@ -1197,7 +1197,7 @@
         <v>-0.07659630541913323</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.02788639869098399</v>
+        <v>-0.02788639869098385</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5493182566890671</v>
+        <v>-0.5220670092037829</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4720621354451134</v>
+        <v>-0.4785886948129759</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2675065188537412</v>
+        <v>-0.2505978784010096</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2530389231830157</v>
+        <v>-0.243539302566099</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.240677237975108</v>
+        <v>-0.2409340400298297</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2919568558973054</v>
+        <v>-0.3117972080826316</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2887557322542309</v>
+        <v>-0.2912196442396192</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2557928173224511</v>
+        <v>-0.2776731145415142</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.236164413787507</v>
+        <v>-0.2147792491358863</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1315930148080261</v>
+        <v>0.1631062220764093</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2247374970485062</v>
+        <v>0.2677528867400769</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5779108908641195</v>
+        <v>0.655813644082936</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3015104461122741</v>
+        <v>0.2924035130680507</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2974838250788494</v>
+        <v>0.2968877303840312</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1863404648141243</v>
+        <v>0.2002804365940153</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1487694067078556</v>
+        <v>0.1333369202027846</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1833951792079201</v>
+        <v>0.1473731322324155</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.2071419074946489</v>
+        <v>0.2236589667715687</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>1.04221573144288</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.8595814626472548</v>
+        <v>0.8595814626472533</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.513988236671364</v>
+        <v>-1.348553242719973</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.9986022493690707</v>
+        <v>-1.102673788950243</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.951607801735503</v>
+        <v>-3.147042403816109</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9940753024235656</v>
+        <v>0.9544238941003841</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.251865786998414</v>
+        <v>-1.971746902687663</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.3326228928470231</v>
+        <v>-0.1115057374179331</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4697331903146143</v>
+        <v>0.7311820977146144</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.9287966200212627</v>
+        <v>-0.7553625566450567</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.8164686491858721</v>
+        <v>-0.9349429671932807</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.420007581989062</v>
+        <v>3.516851349796521</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.679576187358171</v>
+        <v>3.656119752596108</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.435113738563512</v>
+        <v>1.237652918303607</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.085797651263517</v>
+        <v>6.726832150116516</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.609341012767441</v>
+        <v>3.617940985391786</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.056953289255342</v>
+        <v>5.059190383419152</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.60219636145506</v>
+        <v>4.409909898369639</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.980548845349556</v>
+        <v>2.751620320541242</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.673516064386337</v>
+        <v>2.491867576748713</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.1222446270763342</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.1008229027569639</v>
+        <v>0.1008229027569637</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1935033984342296</v>
+        <v>-0.1767875646544388</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1346503633950368</v>
+        <v>-0.1550470372947428</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4064248796813696</v>
+        <v>-0.4028758357485744</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.08105148367003162</v>
+        <v>0.08481284456516104</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1850927879900442</v>
+        <v>-0.1654695902023657</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.02132035177126054</v>
+        <v>-0.009112348177778487</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04773022794048964</v>
+        <v>0.0813594620012594</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.09445368718018263</v>
+        <v>-0.08324605448310329</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.08523915306769272</v>
+        <v>-0.09846988697696776</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.6424808677630711</v>
+        <v>0.6355385268346448</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.7129823342714217</v>
+        <v>0.7337779424111497</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2741438675223242</v>
+        <v>0.2448302326651792</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7843057958710199</v>
+        <v>0.7322212545443929</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3956334911332998</v>
+        <v>0.4010739979258759</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5696511215970698</v>
+        <v>0.5663324789568954</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5888025275278834</v>
+        <v>0.5598545731901833</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3892111727009336</v>
+        <v>0.3625285142929658</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.3583262557346147</v>
+        <v>0.3312102553472541</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>0.01794053191997089</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-0.01581445781020999</v>
+        <v>-0.01581445781021068</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>5.224171082039894</v>
@@ -1511,7 +1511,7 @@
         <v>2.776391386054115</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2.31537855631193</v>
+        <v>2.315378556311928</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>3.174920955467776</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.1000918546216931</v>
+        <v>-0.1750323377329534</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.108722569422364</v>
+        <v>-1.291238493890622</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.20366311357387</v>
+        <v>-1.193163467349736</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.762999143686437</v>
+        <v>3.700529820749987</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.399886616201855</v>
+        <v>1.126699206997395</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.068708432374665</v>
+        <v>1.025821303132139</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.171556381864145</v>
+        <v>2.085845876718535</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.4222370339998683</v>
+        <v>0.5366472617229238</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1368240676145373</v>
+        <v>0.2085334812569104</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.359452178613634</v>
+        <v>2.248271500678385</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.203758422432223</v>
+        <v>1.117218860154628</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.204885497251654</v>
+        <v>1.138081041298256</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.870306275374915</v>
+        <v>6.788799855793082</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.294826561744773</v>
+        <v>4.29346756767308</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.660120558127172</v>
+        <v>3.612999999340269</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.151223744304733</v>
+        <v>4.246110396112194</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.423751283840835</v>
+        <v>2.483843872050832</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.032570091749785</v>
+        <v>2.045678631136394</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.002965263220053842</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.002613859516478874</v>
+        <v>-0.002613859516478989</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.5546619476703221</v>
@@ -1616,7 +1616,7 @@
         <v>0.2947756935024742</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2458289285458485</v>
+        <v>0.2458289285458484</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.4091170817075764</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.0169579547462476</v>
+        <v>-0.02862911238086396</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1695863356988712</v>
+        <v>-0.193374122053747</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1825893399443828</v>
+        <v>-0.1840951128077041</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.3675160996456364</v>
+        <v>0.3682735578569831</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1341282220250279</v>
+        <v>0.1145193273469498</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1073007423430231</v>
+        <v>0.09829735403809312</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2617330139186293</v>
+        <v>0.2471710754177429</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.0525066576733896</v>
+        <v>0.06372423789242779</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.01635023893075849</v>
+        <v>0.02218578891993569</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4193610306790301</v>
+        <v>0.4103556061538978</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.221868347763965</v>
+        <v>0.2066382262083314</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2211347943340626</v>
+        <v>0.2046113829279221</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7788814124400838</v>
+        <v>0.7796765773147217</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4930824225010416</v>
+        <v>0.4838857768573703</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4213782850214596</v>
+        <v>0.4128544753524315</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5650359739547622</v>
+        <v>0.5844490030023083</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.3333288937446443</v>
+        <v>0.3425275717952183</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.27532287260958</v>
+        <v>0.2775085178432452</v>
       </c>
     </row>
     <row r="34">
